--- a/Code/Results/Cases/Case_2_71/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_71/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.41124360155835</v>
+        <v>10.01942288123009</v>
       </c>
       <c r="C2">
-        <v>8.322399806675806</v>
+        <v>5.162034774222009</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>22.72155932948671</v>
+        <v>22.0718331648662</v>
       </c>
       <c r="F2">
-        <v>36.44935120162931</v>
+        <v>42.0137265407898</v>
       </c>
       <c r="G2">
-        <v>25.34131823391864</v>
+        <v>32.64878186171941</v>
       </c>
       <c r="H2">
-        <v>9.462729240759748</v>
+        <v>15.27365411732807</v>
       </c>
       <c r="I2">
-        <v>13.81342491990107</v>
+        <v>21.72367760119745</v>
       </c>
       <c r="J2">
-        <v>4.766044650409361</v>
+        <v>8.298844723406516</v>
       </c>
       <c r="K2">
-        <v>12.20319257762492</v>
+        <v>10.16049146873876</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.07184807795838</v>
+        <v>18.60313205583817</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.51551999153837</v>
+        <v>9.73684480672199</v>
       </c>
       <c r="C3">
-        <v>7.762999233855189</v>
+        <v>4.945389228703379</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>21.34043336447479</v>
+        <v>21.77519265401421</v>
       </c>
       <c r="F3">
-        <v>34.82095916221862</v>
+        <v>41.81531558138956</v>
       </c>
       <c r="G3">
-        <v>24.92650116728319</v>
+        <v>32.71401937206285</v>
       </c>
       <c r="H3">
-        <v>9.523115193898505</v>
+        <v>15.32688032833076</v>
       </c>
       <c r="I3">
-        <v>13.9621003728779</v>
+        <v>21.81785061047033</v>
       </c>
       <c r="J3">
-        <v>4.817109566567393</v>
+        <v>8.323063595870696</v>
       </c>
       <c r="K3">
-        <v>11.43179984231798</v>
+        <v>9.973074050693921</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.29774054597914</v>
+        <v>18.66818125429065</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.93397340081667</v>
+        <v>9.561124857280868</v>
       </c>
       <c r="C4">
-        <v>7.400853772876069</v>
+        <v>4.808526192994369</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>20.46029374306793</v>
+        <v>21.59637723113245</v>
       </c>
       <c r="F4">
-        <v>33.81631728903554</v>
+        <v>41.70492786115938</v>
       </c>
       <c r="G4">
-        <v>24.70423316525442</v>
+        <v>32.76520126959029</v>
       </c>
       <c r="H4">
-        <v>9.567518427961042</v>
+        <v>15.36226044584568</v>
       </c>
       <c r="I4">
-        <v>14.06575826936529</v>
+        <v>21.88008614636295</v>
       </c>
       <c r="J4">
-        <v>4.850421762153697</v>
+        <v>8.338880304591587</v>
       </c>
       <c r="K4">
-        <v>10.93246984779289</v>
+        <v>9.858270103827671</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.43910419299026</v>
+        <v>18.70994175724095</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.68900218828345</v>
+        <v>9.489075499814021</v>
       </c>
       <c r="C5">
-        <v>7.248544249880605</v>
+        <v>4.751875869867916</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>20.09378998836675</v>
+        <v>21.52442960561703</v>
       </c>
       <c r="F5">
-        <v>33.40623950979758</v>
+        <v>41.66285305243019</v>
       </c>
       <c r="G5">
-        <v>24.6215897732643</v>
+        <v>32.78884150136205</v>
       </c>
       <c r="H5">
-        <v>9.587370929792037</v>
+        <v>15.37735606323586</v>
       </c>
       <c r="I5">
-        <v>14.11095060272083</v>
+        <v>21.90655550965254</v>
       </c>
       <c r="J5">
-        <v>4.864479361305854</v>
+        <v>8.345564044420261</v>
       </c>
       <c r="K5">
-        <v>10.72251967398424</v>
+        <v>9.811618874906642</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.49741351833728</v>
+        <v>18.72741864533266</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.64784121931033</v>
+        <v>9.477088554206778</v>
       </c>
       <c r="C6">
-        <v>7.22296653256879</v>
+        <v>4.742418922943798</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>20.03246722721937</v>
+        <v>21.51254085360105</v>
       </c>
       <c r="F6">
-        <v>33.3381223123586</v>
+        <v>41.65604314136691</v>
       </c>
       <c r="G6">
-        <v>24.60833886094907</v>
+        <v>32.79293459138968</v>
       </c>
       <c r="H6">
-        <v>9.590771202267764</v>
+        <v>15.37990360245487</v>
       </c>
       <c r="I6">
-        <v>14.11862850968108</v>
+        <v>21.91101758867519</v>
       </c>
       <c r="J6">
-        <v>4.866842496090746</v>
+        <v>8.346688278109893</v>
       </c>
       <c r="K6">
-        <v>10.6872668462458</v>
+        <v>9.803882355197207</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.50713908071511</v>
+        <v>18.73034844403187</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.93070203062748</v>
+        <v>9.560154807300139</v>
       </c>
       <c r="C7">
-        <v>7.398818881036787</v>
+        <v>4.807765615193698</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>20.45538231961383</v>
+        <v>21.59540307912419</v>
       </c>
       <c r="F7">
-        <v>33.81078882996992</v>
+        <v>41.70434860659501</v>
       </c>
       <c r="G7">
-        <v>24.70308680697322</v>
+        <v>32.76550884123044</v>
       </c>
       <c r="H7">
-        <v>9.567779156863658</v>
+        <v>15.36246128671902</v>
       </c>
       <c r="I7">
-        <v>14.06635600440908</v>
+        <v>21.88043863807557</v>
       </c>
       <c r="J7">
-        <v>4.850609405979142</v>
+        <v>8.338969478475493</v>
       </c>
       <c r="K7">
-        <v>10.92966458345211</v>
+        <v>9.85764032799095</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.43988768697184</v>
+        <v>18.71017559565957</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.10892010142924</v>
+        <v>9.922516854584224</v>
       </c>
       <c r="C8">
-        <v>8.133370091457881</v>
+        <v>5.088182616122805</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>22.25213461367062</v>
+        <v>21.96891360847002</v>
       </c>
       <c r="F8">
-        <v>35.88917334513992</v>
+        <v>41.94296179074494</v>
       </c>
       <c r="G8">
-        <v>25.1914346165959</v>
+        <v>32.66895830690954</v>
       </c>
       <c r="H8">
-        <v>9.481977780439383</v>
+        <v>15.29144588192652</v>
       </c>
       <c r="I8">
-        <v>13.86202131333046</v>
+        <v>21.75523147027434</v>
       </c>
       <c r="J8">
-        <v>4.783239228833966</v>
+        <v>8.306999222439455</v>
       </c>
       <c r="K8">
-        <v>11.94254007583162</v>
+        <v>10.09585186660601</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.14920283723703</v>
+        <v>18.6251841682634</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.17127371260697</v>
+        <v>10.61082047540656</v>
       </c>
       <c r="C9">
-        <v>9.427550936145916</v>
+        <v>5.604229130114512</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>25.51377815646265</v>
+        <v>22.72391067074292</v>
       </c>
       <c r="F9">
-        <v>39.90747482477703</v>
+        <v>42.49997267441973</v>
       </c>
       <c r="G9">
-        <v>26.41467203633239</v>
+        <v>32.56848379058581</v>
       </c>
       <c r="H9">
-        <v>9.375844177239481</v>
+        <v>15.17363420053705</v>
       </c>
       <c r="I9">
-        <v>13.56719550670975</v>
+        <v>21.54479590445291</v>
       </c>
       <c r="J9">
-        <v>4.667157574248733</v>
+        <v>8.251796939994252</v>
       </c>
       <c r="K9">
-        <v>13.72587476955796</v>
+        <v>10.56237360579627</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.59874379361011</v>
+        <v>18.4728885889533</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.5387351365625</v>
+        <v>11.09715626410232</v>
       </c>
       <c r="C10">
-        <v>10.29208561153532</v>
+        <v>5.95889509072594</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>27.74562648818424</v>
+        <v>23.28719074778549</v>
       </c>
       <c r="F10">
-        <v>42.80479479218074</v>
+        <v>42.96101358049602</v>
       </c>
       <c r="G10">
-        <v>27.48445902462639</v>
+        <v>32.54953489687604</v>
       </c>
       <c r="H10">
-        <v>9.341548273364731</v>
+        <v>15.10020058167122</v>
       </c>
       <c r="I10">
-        <v>13.42659469506438</v>
+        <v>21.41169556254528</v>
       </c>
       <c r="J10">
-        <v>4.592422641454015</v>
+        <v>8.215783812808281</v>
       </c>
       <c r="K10">
-        <v>14.91435335571896</v>
+        <v>10.90117223949094</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.20389554160201</v>
+        <v>18.36966086494122</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.12957710178441</v>
+        <v>11.31313305988461</v>
       </c>
       <c r="C11">
-        <v>10.6673456406612</v>
+        <v>6.114289416212258</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>28.74372035700361</v>
+        <v>23.5442166537984</v>
       </c>
       <c r="F11">
-        <v>44.10839931147122</v>
+        <v>43.18138655123131</v>
       </c>
       <c r="G11">
-        <v>28.0097323011611</v>
+        <v>32.55294405686001</v>
       </c>
       <c r="H11">
-        <v>9.336779874421195</v>
+        <v>15.06965333088381</v>
       </c>
       <c r="I11">
-        <v>13.38186776964311</v>
+        <v>21.35583956449878</v>
       </c>
       <c r="J11">
-        <v>4.56091675985018</v>
+        <v>8.200382445507604</v>
       </c>
       <c r="K11">
-        <v>15.42917015917169</v>
+        <v>11.05372615268516</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.02577800548001</v>
+        <v>18.32456022631229</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.34889604356266</v>
+        <v>11.39408317380603</v>
       </c>
       <c r="C12">
-        <v>10.80691815652557</v>
+        <v>6.17223508481991</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>29.13331706983482</v>
+        <v>23.64156958037253</v>
       </c>
       <c r="F12">
-        <v>44.59986449459419</v>
+        <v>43.26630941024339</v>
       </c>
       <c r="G12">
-        <v>28.21428763928158</v>
+        <v>32.55597134295021</v>
       </c>
       <c r="H12">
-        <v>9.336650068105683</v>
+        <v>15.05849775729234</v>
       </c>
       <c r="I12">
-        <v>13.36794019459403</v>
+        <v>21.33536526747704</v>
       </c>
       <c r="J12">
-        <v>4.549364170141847</v>
+        <v>8.194691101699075</v>
       </c>
       <c r="K12">
-        <v>15.62045969826653</v>
+        <v>11.11121289700562</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.95849409517592</v>
+        <v>18.30774743508411</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.30185721144078</v>
+        <v>11.3766874643171</v>
       </c>
       <c r="C13">
-        <v>10.77697022778127</v>
+        <v>6.159796052536213</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>29.0496912747972</v>
+        <v>23.62060328818064</v>
       </c>
       <c r="F13">
-        <v>44.49411660630047</v>
+        <v>43.24795522456126</v>
       </c>
       <c r="G13">
-        <v>28.16998050467355</v>
+        <v>32.55524205540566</v>
       </c>
       <c r="H13">
-        <v>9.336601552213796</v>
+        <v>15.06088196926249</v>
       </c>
       <c r="I13">
-        <v>13.3708018707083</v>
+        <v>21.33974461747804</v>
       </c>
       <c r="J13">
-        <v>4.551835075063795</v>
+        <v>8.195910575692372</v>
       </c>
       <c r="K13">
-        <v>15.57942394437222</v>
+        <v>11.09884551653727</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.97297838591462</v>
+        <v>18.31135656866551</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.14770877288441</v>
+        <v>11.31981004854273</v>
       </c>
       <c r="C14">
-        <v>10.67887869901566</v>
+        <v>6.119074882733493</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>28.77589952825977</v>
+        <v>23.55222599092395</v>
       </c>
       <c r="F14">
-        <v>44.14887651780111</v>
+        <v>43.18834404032219</v>
       </c>
       <c r="G14">
-        <v>28.02644754316036</v>
+        <v>32.55315828437843</v>
       </c>
       <c r="H14">
-        <v>9.336734912768165</v>
+        <v>15.06872729204321</v>
       </c>
       <c r="I14">
-        <v>13.38066017928918</v>
+        <v>21.35414154634696</v>
       </c>
       <c r="J14">
-        <v>4.559958623930819</v>
+        <v>8.199911394527506</v>
       </c>
       <c r="K14">
-        <v>15.4449806933108</v>
+        <v>11.05846159002042</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.02023950864267</v>
+        <v>18.32317170775329</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.05271492321033</v>
+        <v>11.28485994447805</v>
       </c>
       <c r="C15">
-        <v>10.61846718212199</v>
+        <v>6.09401374974779</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>28.60736874686581</v>
+        <v>23.51034324422445</v>
       </c>
       <c r="F15">
-        <v>43.93712097820106</v>
+        <v>43.15202044283294</v>
       </c>
       <c r="G15">
-        <v>27.93926729600848</v>
+        <v>32.5521081959118</v>
       </c>
       <c r="H15">
-        <v>9.337038444548677</v>
+        <v>15.07358646458984</v>
       </c>
       <c r="I15">
-        <v>13.38709807664275</v>
+        <v>21.36304834023729</v>
       </c>
       <c r="J15">
-        <v>4.5649843862743</v>
+        <v>8.202380342494051</v>
       </c>
       <c r="K15">
-        <v>15.36215533448847</v>
+        <v>11.0336868967858</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.04920827102526</v>
+        <v>18.33044340183322</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.49949979924959</v>
+        <v>11.08292888347795</v>
       </c>
       <c r="C16">
-        <v>10.26720396633573</v>
+        <v>5.94861617313753</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>27.68089117974336</v>
+        <v>23.27040156470791</v>
       </c>
       <c r="F16">
-        <v>42.71930008763411</v>
+        <v>42.94682096235001</v>
       </c>
       <c r="G16">
-        <v>27.45091641968309</v>
+        <v>32.54955475786439</v>
       </c>
       <c r="H16">
-        <v>9.342087863796969</v>
+        <v>15.10225451521509</v>
       </c>
       <c r="I16">
-        <v>13.42992525963831</v>
+        <v>21.41544050736469</v>
       </c>
       <c r="J16">
-        <v>4.594533392384075</v>
+        <v>8.216810048769752</v>
       </c>
       <c r="K16">
-        <v>14.88019356937512</v>
+        <v>10.89116602690978</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.21556192300889</v>
+        <v>18.37264557232061</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.15217151816655</v>
+        <v>10.95764474773898</v>
       </c>
       <c r="C17">
-        <v>10.04714165834057</v>
+        <v>5.857863445620245</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>27.10958816230661</v>
+        <v>23.12334175403753</v>
       </c>
       <c r="F17">
-        <v>41.96841370969727</v>
+        <v>42.82362337073779</v>
       </c>
       <c r="G17">
-        <v>27.16128954444904</v>
+        <v>32.55107448700998</v>
       </c>
       <c r="H17">
-        <v>9.348042484721825</v>
+        <v>15.12057418159171</v>
       </c>
       <c r="I17">
-        <v>13.46129360643004</v>
+        <v>21.4487848743118</v>
       </c>
       <c r="J17">
-        <v>4.613312172791789</v>
+        <v>8.225913314043504</v>
       </c>
       <c r="K17">
-        <v>14.5779464515532</v>
+        <v>10.80329136697044</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.31796430199868</v>
+        <v>18.39901018756629</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.94945418044173</v>
+        <v>10.88509379739326</v>
       </c>
       <c r="C18">
-        <v>9.918867461082131</v>
+        <v>5.805107481374138</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>26.77762958754853</v>
+        <v>23.03883621035666</v>
       </c>
       <c r="F18">
-        <v>41.5351697600175</v>
+        <v>42.75376884250888</v>
       </c>
       <c r="G18">
-        <v>26.99833447080713</v>
+        <v>32.55308055566643</v>
       </c>
       <c r="H18">
-        <v>9.352479685213265</v>
+        <v>15.13138012306817</v>
       </c>
       <c r="I18">
-        <v>13.48113071609763</v>
+        <v>21.46840515774837</v>
       </c>
       <c r="J18">
-        <v>4.62434641703503</v>
+        <v>8.231241641056014</v>
       </c>
       <c r="K18">
-        <v>14.4016672047188</v>
+        <v>10.75260387845172</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.3770079775776</v>
+        <v>18.41434939739635</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.88031000463257</v>
+        <v>10.86044753146618</v>
       </c>
       <c r="C19">
-        <v>9.875142232491241</v>
+        <v>5.787150932044419</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>26.66465599627874</v>
+        <v>23.01024050348905</v>
       </c>
       <c r="F19">
-        <v>41.38825294783</v>
+        <v>42.730291708096</v>
       </c>
       <c r="G19">
-        <v>26.94378128981787</v>
+        <v>32.55395396200149</v>
       </c>
       <c r="H19">
-        <v>9.35415238843704</v>
+        <v>15.13508499124729</v>
       </c>
       <c r="I19">
-        <v>13.4881482823543</v>
+        <v>21.4751240001499</v>
       </c>
       <c r="J19">
-        <v>4.628121909153751</v>
+        <v>8.233061594064628</v>
       </c>
       <c r="K19">
-        <v>14.34156239594012</v>
+        <v>10.73541895789092</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.39702544638416</v>
+        <v>18.41957308500315</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.18944933522569</v>
+        <v>10.971032855003</v>
       </c>
       <c r="C20">
-        <v>10.07074320162814</v>
+        <v>5.867582255668021</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>27.17075184096266</v>
+        <v>23.13898896859067</v>
       </c>
       <c r="F20">
-        <v>42.04848803408814</v>
+        <v>42.83663431331343</v>
       </c>
       <c r="G20">
-        <v>27.19174436777551</v>
+        <v>32.55079550225349</v>
       </c>
       <c r="H20">
-        <v>9.347303001188203</v>
+        <v>15.11859617870018</v>
       </c>
       <c r="I20">
-        <v>13.45776690721395</v>
+        <v>21.4451895997658</v>
       </c>
       <c r="J20">
-        <v>4.611288870163697</v>
+        <v>8.224934698012822</v>
       </c>
       <c r="K20">
-        <v>14.61037278831968</v>
+        <v>10.81266113031931</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.30704878744356</v>
+        <v>18.39618552931373</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.19310528778527</v>
+        <v>11.33653959678615</v>
       </c>
       <c r="C21">
-        <v>10.70775871898051</v>
+        <v>6.131060388005948</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>28.856490492723</v>
+        <v>23.57231015168488</v>
       </c>
       <c r="F21">
-        <v>44.25034159099473</v>
+        <v>43.20581380751229</v>
       </c>
       <c r="G21">
-        <v>28.06845273430453</v>
+        <v>32.55372317251852</v>
       </c>
       <c r="H21">
-        <v>9.336649291210229</v>
+        <v>15.0664117406699</v>
       </c>
       <c r="I21">
-        <v>13.37768086679599</v>
+        <v>21.34989442177257</v>
       </c>
       <c r="J21">
-        <v>4.557562112509834</v>
+        <v>8.198732437386221</v>
       </c>
       <c r="K21">
-        <v>15.48456881631792</v>
+        <v>11.07033142191271</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.00635370786923</v>
+        <v>18.31969411092352</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.82332444499038</v>
+        <v>11.57051729498457</v>
       </c>
       <c r="C22">
-        <v>11.10936860254576</v>
+        <v>6.298003807779954</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>29.97879793121177</v>
+        <v>23.8556031356265</v>
       </c>
       <c r="F22">
-        <v>45.67666991571955</v>
+        <v>43.45564721144826</v>
       </c>
       <c r="G22">
-        <v>28.67437907416856</v>
+        <v>32.56575884085561</v>
       </c>
       <c r="H22">
-        <v>9.339513337727947</v>
+        <v>15.03470816183383</v>
       </c>
       <c r="I22">
-        <v>13.34300453777098</v>
+        <v>21.29156166881283</v>
       </c>
       <c r="J22">
-        <v>4.524662804035903</v>
+        <v>8.182428429414323</v>
       </c>
       <c r="K22">
-        <v>16.03460051867104</v>
+        <v>11.23706531638883</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.810769183205</v>
+        <v>18.27125145243246</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.4892945127193</v>
+        <v>11.4461117845039</v>
       </c>
       <c r="C23">
-        <v>10.89634690614533</v>
+        <v>6.2093966344286</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>29.3831341510047</v>
+        <v>23.70442515603966</v>
       </c>
       <c r="F23">
-        <v>44.91659040027014</v>
+        <v>43.32154374870239</v>
       </c>
       <c r="G23">
-        <v>28.34794136059208</v>
+        <v>32.55840731054299</v>
       </c>
       <c r="H23">
-        <v>9.337045197484494</v>
+        <v>15.05140884093772</v>
       </c>
       <c r="I23">
-        <v>13.35981160214811</v>
+        <v>21.32233288079908</v>
       </c>
       <c r="J23">
-        <v>4.542012019104734</v>
+        <v>8.191055180913073</v>
       </c>
       <c r="K23">
-        <v>15.74296824864926</v>
+        <v>11.14824693379983</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.91508840707609</v>
+        <v>18.29696493304883</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.1726054885993</v>
+        <v>10.96498171595813</v>
       </c>
       <c r="C24">
-        <v>10.0600784225169</v>
+        <v>5.863190187966486</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>27.14311067485542</v>
+        <v>23.1319147279392</v>
       </c>
       <c r="F24">
-        <v>42.01229124858541</v>
+        <v>42.83074902957087</v>
       </c>
       <c r="G24">
-        <v>27.17796467525014</v>
+        <v>32.5509181044622</v>
       </c>
       <c r="H24">
-        <v>9.347634172783776</v>
+        <v>15.11948958121703</v>
       </c>
       <c r="I24">
-        <v>13.45935573019982</v>
+        <v>21.44681362128477</v>
       </c>
       <c r="J24">
-        <v>4.612202865199813</v>
+        <v>8.225376835194046</v>
       </c>
       <c r="K24">
-        <v>14.59572067397641</v>
+        <v>10.80842557664693</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.31198315461007</v>
+        <v>18.3974619907451</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.63956660263649</v>
+        <v>10.4276282874196</v>
       </c>
       <c r="C25">
-        <v>9.092818241063343</v>
+        <v>5.468679752806735</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>24.66015455707632</v>
+        <v>22.5177834662112</v>
       </c>
       <c r="F25">
-        <v>38.82892942873875</v>
+        <v>42.33999153681492</v>
       </c>
       <c r="G25">
-        <v>26.05426732818327</v>
+        <v>32.58607320245023</v>
       </c>
       <c r="H25">
-        <v>9.397324226091786</v>
+        <v>15.20320429745275</v>
       </c>
       <c r="I25">
-        <v>13.63448443450771</v>
+        <v>21.59795573499938</v>
       </c>
       <c r="J25">
-        <v>4.696770097098881</v>
+        <v>8.265931022825603</v>
       </c>
       <c r="K25">
-        <v>13.26498604977604</v>
+        <v>10.43661029468531</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.74579528117593</v>
+        <v>18.51256008078095</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_71/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_71/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.01942288123009</v>
+        <v>13.41124360155829</v>
       </c>
       <c r="C2">
-        <v>5.162034774222009</v>
+        <v>8.322399806675859</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>22.0718331648662</v>
+        <v>22.72155932948669</v>
       </c>
       <c r="F2">
-        <v>42.0137265407898</v>
+        <v>36.4493512016294</v>
       </c>
       <c r="G2">
-        <v>32.64878186171941</v>
+        <v>25.34131823391873</v>
       </c>
       <c r="H2">
-        <v>15.27365411732807</v>
+        <v>9.462729240759804</v>
       </c>
       <c r="I2">
-        <v>21.72367760119745</v>
+        <v>13.81342491990117</v>
       </c>
       <c r="J2">
-        <v>8.298844723406516</v>
+        <v>4.766044650409361</v>
       </c>
       <c r="K2">
-        <v>10.16049146873876</v>
+        <v>12.20319257762491</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.60313205583817</v>
+        <v>12.07184807795841</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.73684480672199</v>
+        <v>12.51551999153843</v>
       </c>
       <c r="C3">
-        <v>4.945389228703379</v>
+        <v>7.762999233855189</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>21.77519265401421</v>
+        <v>21.34043336447487</v>
       </c>
       <c r="F3">
-        <v>41.81531558138956</v>
+        <v>34.82095916221862</v>
       </c>
       <c r="G3">
-        <v>32.71401937206285</v>
+        <v>24.92650116728291</v>
       </c>
       <c r="H3">
-        <v>15.32688032833076</v>
+        <v>9.523115193898327</v>
       </c>
       <c r="I3">
-        <v>21.81785061047033</v>
+        <v>13.96210037287772</v>
       </c>
       <c r="J3">
-        <v>8.323063595870696</v>
+        <v>4.817109566567391</v>
       </c>
       <c r="K3">
-        <v>9.973074050693921</v>
+        <v>11.43179984231803</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.66818125429065</v>
+        <v>12.29774054597907</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.561124857280868</v>
+        <v>11.93397340081664</v>
       </c>
       <c r="C4">
-        <v>4.808526192994369</v>
+        <v>7.400853772875984</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>21.59637723113245</v>
+        <v>20.46029374306793</v>
       </c>
       <c r="F4">
-        <v>41.70492786115938</v>
+        <v>33.81631728903555</v>
       </c>
       <c r="G4">
-        <v>32.76520126959029</v>
+        <v>24.70423316525459</v>
       </c>
       <c r="H4">
-        <v>15.36226044584568</v>
+        <v>9.567518427961041</v>
       </c>
       <c r="I4">
-        <v>21.88008614636295</v>
+        <v>14.06575826936532</v>
       </c>
       <c r="J4">
-        <v>8.338880304591587</v>
+        <v>4.850421762153696</v>
       </c>
       <c r="K4">
-        <v>9.858270103827671</v>
+        <v>10.93246984779284</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.70994175724095</v>
+        <v>12.43910419299026</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.489075499814021</v>
+        <v>11.68900218828345</v>
       </c>
       <c r="C5">
-        <v>4.751875869867916</v>
+        <v>7.248544249880506</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>21.52442960561703</v>
+        <v>20.09378998836671</v>
       </c>
       <c r="F5">
-        <v>41.66285305243019</v>
+        <v>33.40623950979762</v>
       </c>
       <c r="G5">
-        <v>32.78884150136205</v>
+        <v>24.62158977326438</v>
       </c>
       <c r="H5">
-        <v>15.37735606323586</v>
+        <v>9.587370929792103</v>
       </c>
       <c r="I5">
-        <v>21.90655550965254</v>
+        <v>14.11095060272093</v>
       </c>
       <c r="J5">
-        <v>8.345564044420261</v>
+        <v>4.864479361305852</v>
       </c>
       <c r="K5">
-        <v>9.811618874906642</v>
+        <v>10.72251967398425</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.72741864533266</v>
+        <v>12.49741351833735</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.477088554206778</v>
+        <v>11.64784121931034</v>
       </c>
       <c r="C6">
-        <v>4.742418922943798</v>
+        <v>7.222966532568815</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>21.51254085360105</v>
+        <v>20.03246722721937</v>
       </c>
       <c r="F6">
-        <v>41.65604314136691</v>
+        <v>33.33812231235871</v>
       </c>
       <c r="G6">
-        <v>32.79293459138968</v>
+        <v>24.60833886094939</v>
       </c>
       <c r="H6">
-        <v>15.37990360245487</v>
+        <v>9.590771202267719</v>
       </c>
       <c r="I6">
-        <v>21.91101758867519</v>
+        <v>14.11862850968122</v>
       </c>
       <c r="J6">
-        <v>8.346688278109893</v>
+        <v>4.866842496090718</v>
       </c>
       <c r="K6">
-        <v>9.803882355197207</v>
+        <v>10.68726684624584</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.73034844403187</v>
+        <v>12.50713908071518</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.560154807300139</v>
+        <v>11.93070203062748</v>
       </c>
       <c r="C7">
-        <v>4.807765615193698</v>
+        <v>7.398818881036703</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>21.59540307912419</v>
+        <v>20.45538231961379</v>
       </c>
       <c r="F7">
-        <v>41.70434860659501</v>
+        <v>33.81078882996999</v>
       </c>
       <c r="G7">
-        <v>32.76550884123044</v>
+        <v>24.70308680697336</v>
       </c>
       <c r="H7">
-        <v>15.36246128671902</v>
+        <v>9.567779156863716</v>
       </c>
       <c r="I7">
-        <v>21.88043863807557</v>
+        <v>14.06635600440912</v>
       </c>
       <c r="J7">
-        <v>8.338969478475493</v>
+        <v>4.850609405979052</v>
       </c>
       <c r="K7">
-        <v>9.85764032799095</v>
+        <v>10.92966458345207</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.71017559565957</v>
+        <v>12.43988768697184</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.922516854584224</v>
+        <v>13.10892010142925</v>
       </c>
       <c r="C8">
-        <v>5.088182616122805</v>
+        <v>8.13337009145785</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>21.96891360847002</v>
+        <v>22.25213461367059</v>
       </c>
       <c r="F8">
-        <v>41.94296179074494</v>
+        <v>35.88917334513994</v>
       </c>
       <c r="G8">
-        <v>32.66895830690954</v>
+        <v>25.19143461659615</v>
       </c>
       <c r="H8">
-        <v>15.29144588192652</v>
+        <v>9.481977780439491</v>
       </c>
       <c r="I8">
-        <v>21.75523147027434</v>
+        <v>13.86202131333063</v>
       </c>
       <c r="J8">
-        <v>8.306999222439455</v>
+        <v>4.783239228833996</v>
       </c>
       <c r="K8">
-        <v>10.09585186660601</v>
+        <v>11.94254007583159</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.6251841682634</v>
+        <v>12.14920283723713</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.61082047540656</v>
+        <v>15.17127371260702</v>
       </c>
       <c r="C9">
-        <v>5.604229130114512</v>
+        <v>9.427550936145899</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>22.72391067074292</v>
+        <v>25.51377815646266</v>
       </c>
       <c r="F9">
-        <v>42.49997267441973</v>
+        <v>39.90747482477705</v>
       </c>
       <c r="G9">
-        <v>32.56848379058581</v>
+        <v>26.41467203633214</v>
       </c>
       <c r="H9">
-        <v>15.17363420053705</v>
+        <v>9.375844177239545</v>
       </c>
       <c r="I9">
-        <v>21.54479590445291</v>
+        <v>13.56719550670969</v>
       </c>
       <c r="J9">
-        <v>8.251796939994252</v>
+        <v>4.667157574248761</v>
       </c>
       <c r="K9">
-        <v>10.56237360579627</v>
+        <v>13.72587476955801</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>18.4728885889533</v>
+        <v>11.59874379361004</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.09715626410232</v>
+        <v>16.53873513656253</v>
       </c>
       <c r="C10">
-        <v>5.95889509072594</v>
+        <v>10.29208561153538</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>23.28719074778549</v>
+        <v>27.74562648818421</v>
       </c>
       <c r="F10">
-        <v>42.96101358049602</v>
+        <v>42.80479479218074</v>
       </c>
       <c r="G10">
-        <v>32.54953489687604</v>
+        <v>27.48445902462633</v>
       </c>
       <c r="H10">
-        <v>15.10020058167122</v>
+        <v>9.341548273364749</v>
       </c>
       <c r="I10">
-        <v>21.41169556254528</v>
+        <v>13.42659469506439</v>
       </c>
       <c r="J10">
-        <v>8.215783812808281</v>
+        <v>4.592422641454048</v>
       </c>
       <c r="K10">
-        <v>10.90117223949094</v>
+        <v>14.91435335571898</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>18.36966086494122</v>
+        <v>11.20389554160194</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.31313305988461</v>
+        <v>17.12957710178442</v>
       </c>
       <c r="C11">
-        <v>6.114289416212258</v>
+        <v>10.66734564066119</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>23.5442166537984</v>
+        <v>28.74372035700355</v>
       </c>
       <c r="F11">
-        <v>43.18138655123131</v>
+        <v>44.10839931147124</v>
       </c>
       <c r="G11">
-        <v>32.55294405686001</v>
+        <v>28.00973230116112</v>
       </c>
       <c r="H11">
-        <v>15.06965333088381</v>
+        <v>9.33677987442112</v>
       </c>
       <c r="I11">
-        <v>21.35583956449878</v>
+        <v>13.3818677696431</v>
       </c>
       <c r="J11">
-        <v>8.200382445507604</v>
+        <v>4.560916759850185</v>
       </c>
       <c r="K11">
-        <v>11.05372615268516</v>
+        <v>15.42917015917167</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>18.32456022631229</v>
+        <v>11.02577800547995</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.39408317380603</v>
+        <v>17.34889604356277</v>
       </c>
       <c r="C12">
-        <v>6.17223508481991</v>
+        <v>10.80691815652549</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>23.64156958037253</v>
+        <v>29.13331706983487</v>
       </c>
       <c r="F12">
-        <v>43.26630941024339</v>
+        <v>44.5998644945942</v>
       </c>
       <c r="G12">
-        <v>32.55597134295021</v>
+        <v>28.21428763928158</v>
       </c>
       <c r="H12">
-        <v>15.05849775729234</v>
+        <v>9.336650068105715</v>
       </c>
       <c r="I12">
-        <v>21.33536526747704</v>
+        <v>13.36794019459397</v>
       </c>
       <c r="J12">
-        <v>8.194691101699075</v>
+        <v>4.549364170141742</v>
       </c>
       <c r="K12">
-        <v>11.11121289700562</v>
+        <v>15.62045969826658</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>18.30774743508411</v>
+        <v>10.95849409517588</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.3766874643171</v>
+        <v>17.30185721144072</v>
       </c>
       <c r="C13">
-        <v>6.159796052536213</v>
+        <v>10.77697022778127</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>23.62060328818064</v>
+        <v>29.04969127479722</v>
       </c>
       <c r="F13">
-        <v>43.24795522456126</v>
+        <v>44.49411660630047</v>
       </c>
       <c r="G13">
-        <v>32.55524205540566</v>
+        <v>28.16998050467346</v>
       </c>
       <c r="H13">
-        <v>15.06088196926249</v>
+        <v>9.336601552213878</v>
       </c>
       <c r="I13">
-        <v>21.33974461747804</v>
+        <v>13.37080187070829</v>
       </c>
       <c r="J13">
-        <v>8.195910575692372</v>
+        <v>4.551835075063733</v>
       </c>
       <c r="K13">
-        <v>11.09884551653727</v>
+        <v>15.5794239443722</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>18.31135656866551</v>
+        <v>10.97297838591459</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.31981004854273</v>
+        <v>17.14770877288444</v>
       </c>
       <c r="C14">
-        <v>6.119074882733493</v>
+        <v>10.67887869901574</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>23.55222599092395</v>
+        <v>28.77589952825969</v>
       </c>
       <c r="F14">
-        <v>43.18834404032219</v>
+        <v>44.14887651780113</v>
       </c>
       <c r="G14">
-        <v>32.55315828437843</v>
+        <v>28.02644754316028</v>
       </c>
       <c r="H14">
-        <v>15.06872729204321</v>
+        <v>9.336734912768083</v>
       </c>
       <c r="I14">
-        <v>21.35414154634696</v>
+        <v>13.38066017928916</v>
       </c>
       <c r="J14">
-        <v>8.199911394527506</v>
+        <v>4.559958623930798</v>
       </c>
       <c r="K14">
-        <v>11.05846159002042</v>
+        <v>15.44498069331082</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>18.32317170775329</v>
+        <v>11.02023950864261</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.28485994447805</v>
+        <v>17.05271492321042</v>
       </c>
       <c r="C15">
-        <v>6.09401374974779</v>
+        <v>10.61846718212193</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>23.51034324422445</v>
+        <v>28.60736874686577</v>
       </c>
       <c r="F15">
-        <v>43.15202044283294</v>
+        <v>43.93712097820107</v>
       </c>
       <c r="G15">
-        <v>32.5521081959118</v>
+        <v>27.93926729600832</v>
       </c>
       <c r="H15">
-        <v>15.07358646458984</v>
+        <v>9.337038444548536</v>
       </c>
       <c r="I15">
-        <v>21.36304834023729</v>
+        <v>13.38709807664256</v>
       </c>
       <c r="J15">
-        <v>8.202380342494051</v>
+        <v>4.564984386274276</v>
       </c>
       <c r="K15">
-        <v>11.0336868967858</v>
+        <v>15.36215533448852</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>18.33044340183322</v>
+        <v>11.04920827102516</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.08292888347795</v>
+        <v>16.49949979924958</v>
       </c>
       <c r="C16">
-        <v>5.94861617313753</v>
+        <v>10.26720396633584</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>23.27040156470791</v>
+        <v>27.68089117974336</v>
       </c>
       <c r="F16">
-        <v>42.94682096235001</v>
+        <v>42.71930008763415</v>
       </c>
       <c r="G16">
-        <v>32.54955475786439</v>
+        <v>27.45091641968316</v>
       </c>
       <c r="H16">
-        <v>15.10225451521509</v>
+        <v>9.34208786379714</v>
       </c>
       <c r="I16">
-        <v>21.41544050736469</v>
+        <v>13.42992525963849</v>
       </c>
       <c r="J16">
-        <v>8.216810048769752</v>
+        <v>4.594533392384046</v>
       </c>
       <c r="K16">
-        <v>10.89116602690978</v>
+        <v>14.88019356937513</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>18.37264557232061</v>
+        <v>11.21556192300899</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.95764474773898</v>
+        <v>16.15217151816653</v>
       </c>
       <c r="C17">
-        <v>5.857863445620245</v>
+        <v>10.04714165834049</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>23.12334175403753</v>
+        <v>27.1095881623066</v>
       </c>
       <c r="F17">
-        <v>42.82362337073779</v>
+        <v>41.9684137096973</v>
       </c>
       <c r="G17">
-        <v>32.55107448700998</v>
+        <v>27.16128954444918</v>
       </c>
       <c r="H17">
-        <v>15.12057418159171</v>
+        <v>9.348042484721836</v>
       </c>
       <c r="I17">
-        <v>21.4487848743118</v>
+        <v>13.46129360643014</v>
       </c>
       <c r="J17">
-        <v>8.225913314043504</v>
+        <v>4.613312172791733</v>
       </c>
       <c r="K17">
-        <v>10.80329136697044</v>
+        <v>14.57794645155316</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>18.39901018756629</v>
+        <v>11.31796430199871</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.88509379739326</v>
+        <v>15.94945418044166</v>
       </c>
       <c r="C18">
-        <v>5.805107481374138</v>
+        <v>9.918867461082103</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>23.03883621035666</v>
+        <v>26.77762958754849</v>
       </c>
       <c r="F18">
-        <v>42.75376884250888</v>
+        <v>41.53516976001755</v>
       </c>
       <c r="G18">
-        <v>32.55308055566643</v>
+        <v>26.99833447080735</v>
       </c>
       <c r="H18">
-        <v>15.13138012306817</v>
+        <v>9.352479685213314</v>
       </c>
       <c r="I18">
-        <v>21.46840515774837</v>
+        <v>13.48113071609778</v>
       </c>
       <c r="J18">
-        <v>8.231241641056014</v>
+        <v>4.624346417035055</v>
       </c>
       <c r="K18">
-        <v>10.75260387845172</v>
+        <v>14.40166720471876</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>18.41434939739635</v>
+        <v>11.3770079775777</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.86044753146618</v>
+        <v>15.88031000463264</v>
       </c>
       <c r="C19">
-        <v>5.787150932044419</v>
+        <v>9.875142232491225</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>23.01024050348905</v>
+        <v>26.66465599627873</v>
       </c>
       <c r="F19">
-        <v>42.730291708096</v>
+        <v>41.38825294782998</v>
       </c>
       <c r="G19">
-        <v>32.55395396200149</v>
+        <v>26.94378128981777</v>
       </c>
       <c r="H19">
-        <v>15.13508499124729</v>
+        <v>9.354152388437047</v>
       </c>
       <c r="I19">
-        <v>21.4751240001499</v>
+        <v>13.48814828235425</v>
       </c>
       <c r="J19">
-        <v>8.233061594064628</v>
+        <v>4.628121909153785</v>
       </c>
       <c r="K19">
-        <v>10.73541895789092</v>
+        <v>14.34156239594018</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>18.41957308500315</v>
+        <v>11.39702544638423</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.971032855003</v>
+        <v>16.18944933522572</v>
       </c>
       <c r="C20">
-        <v>5.867582255668021</v>
+        <v>10.07074320162807</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>23.13898896859067</v>
+        <v>27.17075184096259</v>
       </c>
       <c r="F20">
-        <v>42.83663431331343</v>
+        <v>42.04848803408815</v>
       </c>
       <c r="G20">
-        <v>32.55079550225349</v>
+        <v>27.19174436777557</v>
       </c>
       <c r="H20">
-        <v>15.11859617870018</v>
+        <v>9.347303001188244</v>
       </c>
       <c r="I20">
-        <v>21.4451895997658</v>
+        <v>13.45776690721399</v>
       </c>
       <c r="J20">
-        <v>8.224934698012822</v>
+        <v>4.611288870163666</v>
       </c>
       <c r="K20">
-        <v>10.81266113031931</v>
+        <v>14.61037278831968</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>18.39618552931373</v>
+        <v>11.30704878744359</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.33653959678615</v>
+        <v>17.19310528778535</v>
       </c>
       <c r="C21">
-        <v>6.131060388005948</v>
+        <v>10.70775871898056</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>23.57231015168488</v>
+        <v>28.85649049272302</v>
       </c>
       <c r="F21">
-        <v>43.20581380751229</v>
+        <v>44.25034159099474</v>
       </c>
       <c r="G21">
-        <v>32.55372317251852</v>
+        <v>28.06845273430453</v>
       </c>
       <c r="H21">
-        <v>15.0664117406699</v>
+        <v>9.336649291210239</v>
       </c>
       <c r="I21">
-        <v>21.34989442177257</v>
+        <v>13.37768086679598</v>
       </c>
       <c r="J21">
-        <v>8.198732437386221</v>
+        <v>4.557562112509838</v>
       </c>
       <c r="K21">
-        <v>11.07033142191271</v>
+        <v>15.48456881631795</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>18.31969411092352</v>
+        <v>11.00635370786923</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.57051729498457</v>
+        <v>17.82332444499034</v>
       </c>
       <c r="C22">
-        <v>6.298003807779954</v>
+        <v>11.10936860254582</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>23.8556031356265</v>
+        <v>29.97879793121171</v>
       </c>
       <c r="F22">
-        <v>43.45564721144826</v>
+        <v>45.67666991571954</v>
       </c>
       <c r="G22">
-        <v>32.56575884085561</v>
+        <v>28.67437907416861</v>
       </c>
       <c r="H22">
-        <v>15.03470816183383</v>
+        <v>9.339513337727933</v>
       </c>
       <c r="I22">
-        <v>21.29156166881283</v>
+        <v>13.34300453777105</v>
       </c>
       <c r="J22">
-        <v>8.182428429414323</v>
+        <v>4.524662804035905</v>
       </c>
       <c r="K22">
-        <v>11.23706531638883</v>
+        <v>16.03460051867103</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>18.27125145243246</v>
+        <v>10.81076918320507</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.4461117845039</v>
+        <v>17.48929451271936</v>
       </c>
       <c r="C23">
-        <v>6.2093966344286</v>
+        <v>10.89634690614538</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>23.70442515603966</v>
+        <v>29.38313415100472</v>
       </c>
       <c r="F23">
-        <v>43.32154374870239</v>
+        <v>44.91659040027015</v>
       </c>
       <c r="G23">
-        <v>32.55840731054299</v>
+        <v>28.3479413605919</v>
       </c>
       <c r="H23">
-        <v>15.05140884093772</v>
+        <v>9.337045197484436</v>
       </c>
       <c r="I23">
-        <v>21.32233288079908</v>
+        <v>13.35981160214791</v>
       </c>
       <c r="J23">
-        <v>8.191055180913073</v>
+        <v>4.542012019104705</v>
       </c>
       <c r="K23">
-        <v>11.14824693379983</v>
+        <v>15.74296824864931</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>18.29696493304883</v>
+        <v>10.91508840707596</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.96498171595813</v>
+        <v>16.17260548859935</v>
       </c>
       <c r="C24">
-        <v>5.863190187966486</v>
+        <v>10.06007842251693</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>23.1319147279392</v>
+        <v>27.14311067485543</v>
       </c>
       <c r="F24">
-        <v>42.83074902957087</v>
+        <v>42.01229124858548</v>
       </c>
       <c r="G24">
-        <v>32.5509181044622</v>
+        <v>27.17796467525018</v>
       </c>
       <c r="H24">
-        <v>15.11948958121703</v>
+        <v>9.347634172783842</v>
       </c>
       <c r="I24">
-        <v>21.44681362128477</v>
+        <v>13.4593557301998</v>
       </c>
       <c r="J24">
-        <v>8.225376835194046</v>
+        <v>4.612202865199819</v>
       </c>
       <c r="K24">
-        <v>10.80842557664693</v>
+        <v>14.59572067397646</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>18.3974619907451</v>
+        <v>11.31198315461006</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.4276282874196</v>
+        <v>14.63956660263655</v>
       </c>
       <c r="C25">
-        <v>5.468679752806735</v>
+        <v>9.09281824106329</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>22.5177834662112</v>
+        <v>24.66015455707631</v>
       </c>
       <c r="F25">
-        <v>42.33999153681492</v>
+        <v>38.82892942873874</v>
       </c>
       <c r="G25">
-        <v>32.58607320245023</v>
+        <v>26.05426732818327</v>
       </c>
       <c r="H25">
-        <v>15.20320429745275</v>
+        <v>9.397324226091696</v>
       </c>
       <c r="I25">
-        <v>21.59795573499938</v>
+        <v>13.6344844345076</v>
       </c>
       <c r="J25">
-        <v>8.265931022825603</v>
+        <v>4.696770097098824</v>
       </c>
       <c r="K25">
-        <v>10.43661029468531</v>
+        <v>13.26498604977607</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18.51256008078095</v>
+        <v>11.74579528117583</v>
       </c>
       <c r="O25">
         <v>0</v>
